--- a/section07.2019.xlsx
+++ b/section07.2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a12c3407f33608/Desktop/Capstone1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C595E1-C499-4FA5-9675-6ED4A3CEEBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{56C595E1-C499-4FA5-9675-6ED4A3CEEBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C3689A-B83A-4B1C-919E-22B68091C255}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3144" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titles" sheetId="85" r:id="rId1"/>
@@ -4475,7 +4475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1364">
   <si>
     <t>Table Number</t>
   </si>
@@ -6340,31 +6340,10 @@
     <t xml:space="preserve">  LONGER:  2018 AND 2019</t>
   </si>
   <si>
-    <t>Length                                                                   of stay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Domestic         </t>
   </si>
   <si>
     <t xml:space="preserve">Interna-tional         </t>
-  </si>
-  <si>
-    <t>1 to 6 days</t>
-  </si>
-  <si>
-    <t>7 to 12 days</t>
-  </si>
-  <si>
-    <t>13 to 30 days</t>
-  </si>
-  <si>
-    <t>31 to 365 days</t>
-  </si>
-  <si>
-    <t>Median (days)</t>
-  </si>
-  <si>
-    <t>Mean (days)</t>
   </si>
   <si>
     <t xml:space="preserve">Table 7.22-- JAPANESE VISITOR ARRIVALS AND EXPENDITURES:  </t>
@@ -9368,6 +9347,27 @@
   </si>
   <si>
     <t>present).</t>
+  </si>
+  <si>
+    <t>Length                                                                   of stay</t>
+  </si>
+  <si>
+    <t>1 to 6 days</t>
+  </si>
+  <si>
+    <t>7 to 12 days</t>
+  </si>
+  <si>
+    <t>13 to 30 days</t>
+  </si>
+  <si>
+    <t>31 to 365 days</t>
+  </si>
+  <si>
+    <t>Median (days)</t>
+  </si>
+  <si>
+    <t>Mean (days)</t>
   </si>
 </sst>
 </file>
@@ -12300,36 +12300,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="68" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="68" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12352,6 +12322,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="8" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="127" applyBorder="1" applyAlignment="1"/>
@@ -13057,6 +13057,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13380,7 +13384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23006,7 +23012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23098,25 +23106,25 @@
     </row>
     <row r="9" spans="1:11" s="81" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
-        <v>560</v>
+        <v>1357</v>
       </c>
       <c r="B9" s="389" t="s">
         <v>124</v>
       </c>
       <c r="C9" s="197" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="178" t="s">
         <v>561</v>
-      </c>
-      <c r="D9" s="178" t="s">
-        <v>562</v>
       </c>
       <c r="E9" s="389" t="s">
         <v>124</v>
       </c>
       <c r="F9" s="197" t="s">
+        <v>560</v>
+      </c>
+      <c r="G9" s="178" t="s">
         <v>561</v>
-      </c>
-      <c r="G9" s="178" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -23127,27 +23135,13 @@
       <c r="F10" s="377"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="387">
-        <v>9761448.0560364146</v>
-      </c>
-      <c r="C11" s="386">
-        <v>6736736.0560361538</v>
-      </c>
-      <c r="D11" s="385">
-        <v>3024712.0000002603</v>
-      </c>
-      <c r="E11" s="387">
-        <v>10243165.024058949</v>
-      </c>
-      <c r="F11" s="386">
-        <v>7253806.0240591513</v>
-      </c>
-      <c r="G11" s="385">
-        <v>2989358.9999997984</v>
-      </c>
+      <c r="A11" s="20"/>
+      <c r="B11" s="387"/>
+      <c r="C11" s="386"/>
+      <c r="D11" s="385"/>
+      <c r="E11" s="387"/>
+      <c r="F11" s="386"/>
+      <c r="G11" s="385"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="377"/>
@@ -23164,7 +23158,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="377" t="s">
-        <v>563</v>
+        <v>1358</v>
       </c>
       <c r="B13" s="383">
         <v>3217754.8415092146</v>
@@ -23191,7 +23185,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="377" t="s">
-        <v>564</v>
+        <v>1359</v>
       </c>
       <c r="B14" s="383">
         <v>5189750.9101680135</v>
@@ -23218,7 +23212,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="377" t="s">
-        <v>565</v>
+        <v>1360</v>
       </c>
       <c r="B15" s="383">
         <v>1262487.5010060333</v>
@@ -23245,7 +23239,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="377" t="s">
-        <v>566</v>
+        <v>1361</v>
       </c>
       <c r="B16" s="383">
         <v>91454.803277243162</v>
@@ -23285,7 +23279,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="377" t="s">
-        <v>567</v>
+        <v>1362</v>
       </c>
       <c r="B18" s="375">
         <v>7.2879566759777905</v>
@@ -23311,7 +23305,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="377" t="s">
-        <v>568</v>
+        <v>1363</v>
       </c>
       <c r="B19" s="375">
         <v>8.9868428164976759</v>
@@ -23487,7 +23481,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -23498,7 +23492,7 @@
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -23518,7 +23512,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="401" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -23570,7 +23564,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="397" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B8" s="396">
         <v>1511.7392435079994</v>
@@ -23593,7 +23587,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="397" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B9" s="398">
         <v>5.7989671035798693</v>
@@ -23616,7 +23610,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="397" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B10" s="396">
         <v>2396.6521896512281</v>
@@ -23796,7 +23790,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B1" s="279"/>
       <c r="C1" s="279"/>
@@ -23806,7 +23800,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B2" s="279"/>
       <c r="C2" s="279"/>
@@ -23817,7 +23811,7 @@
     <row r="3" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -23827,7 +23821,7 @@
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23843,19 +23837,19 @@
         <v>123</v>
       </c>
       <c r="B7" s="944" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D7" s="944" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="944" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F7" s="943" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -23867,7 +23861,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="414" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B9" s="407">
         <v>32</v>
@@ -23887,7 +23881,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="414" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B10" s="407">
         <v>37.229999999999997</v>
@@ -24280,42 +24274,42 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="404" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="403" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="402" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -24352,7 +24346,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -24362,7 +24356,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -24380,7 +24374,7 @@
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="296" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B4" s="295"/>
       <c r="C4" s="295"/>
@@ -24401,19 +24395,19 @@
         <v>123</v>
       </c>
       <c r="B6" s="197" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C6" s="427" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D6" s="197" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="197" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F6" s="178" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -24425,7 +24419,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="424" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B8" s="421">
         <v>29.8</v>
@@ -24445,7 +24439,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="425" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B9" s="421">
         <v>32</v>
@@ -24833,27 +24827,27 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="417" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="417" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -24889,7 +24883,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -24902,7 +24896,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -24924,7 +24918,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="940" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B4" s="295"/>
       <c r="C4" s="295"/>
@@ -24937,7 +24931,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="429" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B5" s="295"/>
       <c r="C5" s="295"/>
@@ -24978,7 +24972,7 @@
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="220" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B8" s="440">
         <v>2018</v>
@@ -25018,7 +25012,7 @@
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B10" s="436">
         <v>175.79877912380275</v>
@@ -25058,7 +25052,7 @@
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="292" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B12" s="434">
         <v>37.750405250147899</v>
@@ -25087,7 +25081,7 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B13" s="434">
         <v>23.896877243665063</v>
@@ -25116,7 +25110,7 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B14" s="434">
         <v>4.1114672801891921</v>
@@ -25145,7 +25139,7 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B15" s="434">
         <v>9.7420607262936549</v>
@@ -25185,7 +25179,7 @@
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="356" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B17" s="434">
         <v>15.763671625862813</v>
@@ -25225,7 +25219,7 @@
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="292" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B19" s="434">
         <v>19.462027871289379</v>
@@ -25254,7 +25248,7 @@
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B20" s="434">
         <v>2.1308510811671639</v>
@@ -25283,7 +25277,7 @@
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B21" s="434">
         <v>0.87558412804359553</v>
@@ -25312,7 +25306,7 @@
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B22" s="434">
         <v>15.244359709070185</v>
@@ -25341,7 +25335,7 @@
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B23" s="434">
         <v>1.2112329530084416</v>
@@ -25381,7 +25375,7 @@
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="292" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B25" s="434">
         <v>16.642388035788748</v>
@@ -25410,7 +25404,7 @@
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B26" s="434">
         <v>6.2669579427706594</v>
@@ -25439,7 +25433,7 @@
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B27" s="434">
         <v>2.7292808987035424</v>
@@ -25468,7 +25462,7 @@
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B28" s="434">
         <v>0.40161365661788784</v>
@@ -25497,7 +25491,7 @@
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B29" s="434">
         <v>0.89079382185396139</v>
@@ -25526,7 +25520,7 @@
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B30" s="434">
         <v>2.7050081830359347</v>
@@ -25555,7 +25549,7 @@
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B31" s="434">
         <v>3.6487335328067649</v>
@@ -25595,7 +25589,7 @@
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="292" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B33" s="434">
         <v>82.14479434746562</v>
@@ -25635,7 +25629,7 @@
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="356" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B35" s="434">
         <v>4.0354919932482849</v>
@@ -25684,7 +25678,7 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="444" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B40" s="444"/>
       <c r="C40" s="444"/>
@@ -25697,7 +25691,7 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="444" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B41" s="444"/>
       <c r="C41" s="444"/>
@@ -25742,17 +25736,17 @@
       </c>
       <c r="E44" s="346"/>
       <c r="F44" s="198" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G44" s="449"/>
       <c r="H44" s="448" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="I44" s="441"/>
     </row>
     <row r="45" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="220" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B45" s="440">
         <v>2018</v>
@@ -25792,7 +25786,7 @@
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="134" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B47" s="436">
         <v>349.11937948311885</v>
@@ -25832,7 +25826,7 @@
     </row>
     <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="292" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B49" s="434">
         <v>53.802039958882851</v>
@@ -25861,7 +25855,7 @@
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="55" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B50" s="434">
         <v>43.854149690959581</v>
@@ -25890,7 +25884,7 @@
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B51" s="434">
         <v>3.9814001009726971</v>
@@ -25919,7 +25913,7 @@
     </row>
     <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B52" s="434">
         <v>5.9664901669505666</v>
@@ -25959,7 +25953,7 @@
     </row>
     <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="292" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B54" s="434">
         <v>35.658621698241987</v>
@@ -25999,7 +25993,7 @@
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="292" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B56" s="434">
         <v>37.479894654011446</v>
@@ -26028,7 +26022,7 @@
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B57" s="434">
         <v>13.837084003954843</v>
@@ -26057,7 +26051,7 @@
     </row>
     <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B58" s="434">
         <v>4.7626573940475758</v>
@@ -26086,7 +26080,7 @@
     </row>
     <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B59" s="434">
         <v>17.026302743142583</v>
@@ -26115,7 +26109,7 @@
     </row>
     <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B60" s="434">
         <v>1.6492108047477954</v>
@@ -26155,7 +26149,7 @@
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="292" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B62" s="434">
         <v>115.48540443832005</v>
@@ -26184,7 +26178,7 @@
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B63" s="434">
         <v>42.57216618800819</v>
@@ -26213,7 +26207,7 @@
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B64" s="434">
         <v>25.459030211142426</v>
@@ -26242,7 +26236,7 @@
     </row>
     <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B65" s="434">
         <v>14.696366184598155</v>
@@ -26271,7 +26265,7 @@
     </row>
     <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B66" s="434">
         <v>24.877184863826898</v>
@@ -26300,7 +26294,7 @@
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B67" s="434">
         <v>6.6394816929967284</v>
@@ -26329,7 +26323,7 @@
     </row>
     <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B68" s="434">
         <v>4.8804506125862428</v>
@@ -26369,7 +26363,7 @@
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="292" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B70" s="434">
         <v>96.970492429293714</v>
@@ -26409,7 +26403,7 @@
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="356" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B72" s="434">
         <v>9.7229263043687943</v>
@@ -26457,7 +26451,7 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="444" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B77" s="444"/>
       <c r="C77" s="444"/>
@@ -26470,7 +26464,7 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="444" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B78" s="444"/>
       <c r="C78" s="444"/>
@@ -26504,28 +26498,28 @@
       <c r="G80" s="294"/>
     </row>
     <row r="81" spans="1:9" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="957"/>
-      <c r="B81" s="957"/>
-      <c r="C81" s="958"/>
+      <c r="A81" s="947"/>
+      <c r="B81" s="947"/>
+      <c r="C81" s="948"/>
       <c r="D81" s="443" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E81" s="441"/>
       <c r="F81" s="443" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="G81" s="441"/>
       <c r="H81" s="442" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I81" s="441"/>
     </row>
     <row r="82" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="959" t="s">
-        <v>606</v>
-      </c>
-      <c r="B82" s="959"/>
-      <c r="C82" s="960"/>
+      <c r="A82" s="949" t="s">
+        <v>599</v>
+      </c>
+      <c r="B82" s="949"/>
+      <c r="C82" s="950"/>
       <c r="D82" s="440">
         <v>2018</v>
       </c>
@@ -26546,9 +26540,9 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="961"/>
-      <c r="B83" s="961"/>
-      <c r="C83" s="962"/>
+      <c r="A83" s="951"/>
+      <c r="B83" s="951"/>
+      <c r="C83" s="952"/>
       <c r="D83" s="439"/>
       <c r="E83" s="439"/>
       <c r="F83" s="439"/>
@@ -26557,11 +26551,11 @@
       <c r="I83" s="437"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="963" t="s">
-        <v>607</v>
-      </c>
-      <c r="B84" s="963"/>
-      <c r="C84" s="964"/>
+      <c r="A84" s="953" t="s">
+        <v>600</v>
+      </c>
+      <c r="B84" s="953"/>
+      <c r="C84" s="954"/>
       <c r="D84" s="436">
         <v>171.5293962362758</v>
       </c>
@@ -26582,9 +26576,9 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="947"/>
-      <c r="B85" s="947"/>
-      <c r="C85" s="948"/>
+      <c r="A85" s="955"/>
+      <c r="B85" s="955"/>
+      <c r="C85" s="956"/>
       <c r="D85" s="434"/>
       <c r="E85" s="433"/>
       <c r="F85" s="434"/>
@@ -26593,11 +26587,11 @@
       <c r="I85" s="433"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="947" t="s">
-        <v>608</v>
-      </c>
-      <c r="B86" s="947"/>
-      <c r="C86" s="948"/>
+      <c r="A86" s="955" t="s">
+        <v>601</v>
+      </c>
+      <c r="B86" s="955"/>
+      <c r="C86" s="956"/>
       <c r="D86" s="434">
         <v>41.094394591919645</v>
       </c>
@@ -26618,11 +26612,11 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="955" t="s">
-        <v>609</v>
-      </c>
-      <c r="B87" s="955"/>
-      <c r="C87" s="956"/>
+      <c r="A87" s="957" t="s">
+        <v>602</v>
+      </c>
+      <c r="B87" s="957"/>
+      <c r="C87" s="958"/>
       <c r="D87" s="434">
         <v>27.837922071597408</v>
       </c>
@@ -26643,11 +26637,11 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="955" t="s">
-        <v>633</v>
-      </c>
-      <c r="B88" s="955"/>
-      <c r="C88" s="956"/>
+      <c r="A88" s="957" t="s">
+        <v>626</v>
+      </c>
+      <c r="B88" s="957"/>
+      <c r="C88" s="958"/>
       <c r="D88" s="434">
         <v>1.7062602021474067</v>
       </c>
@@ -26668,11 +26662,11 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="955" t="s">
-        <v>611</v>
-      </c>
-      <c r="B89" s="955"/>
-      <c r="C89" s="956"/>
+      <c r="A89" s="957" t="s">
+        <v>604</v>
+      </c>
+      <c r="B89" s="957"/>
+      <c r="C89" s="958"/>
       <c r="D89" s="434">
         <v>11.550212318174836</v>
       </c>
@@ -26693,9 +26687,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="955"/>
-      <c r="B90" s="955"/>
-      <c r="C90" s="956"/>
+      <c r="A90" s="957"/>
+      <c r="B90" s="957"/>
+      <c r="C90" s="958"/>
       <c r="D90" s="434"/>
       <c r="E90" s="433"/>
       <c r="F90" s="434"/>
@@ -26704,11 +26698,11 @@
       <c r="I90" s="433"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="951" t="s">
-        <v>612</v>
-      </c>
-      <c r="B91" s="951"/>
-      <c r="C91" s="952"/>
+      <c r="A91" s="959" t="s">
+        <v>605</v>
+      </c>
+      <c r="B91" s="959"/>
+      <c r="C91" s="960"/>
       <c r="D91" s="434">
         <v>17.388392046448683</v>
       </c>
@@ -26729,9 +26723,9 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="955"/>
-      <c r="B92" s="955"/>
-      <c r="C92" s="956"/>
+      <c r="A92" s="957"/>
+      <c r="B92" s="957"/>
+      <c r="C92" s="958"/>
       <c r="D92" s="434"/>
       <c r="E92" s="433"/>
       <c r="F92" s="434"/>
@@ -26740,11 +26734,11 @@
       <c r="I92" s="433"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="947" t="s">
-        <v>613</v>
-      </c>
-      <c r="B93" s="947"/>
-      <c r="C93" s="948"/>
+      <c r="A93" s="955" t="s">
+        <v>606</v>
+      </c>
+      <c r="B93" s="955"/>
+      <c r="C93" s="956"/>
       <c r="D93" s="434">
         <v>26.307140938039431</v>
       </c>
@@ -26765,11 +26759,11 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="955" t="s">
-        <v>614</v>
-      </c>
-      <c r="B94" s="955"/>
-      <c r="C94" s="956"/>
+      <c r="A94" s="957" t="s">
+        <v>607</v>
+      </c>
+      <c r="B94" s="957"/>
+      <c r="C94" s="958"/>
       <c r="D94" s="434">
         <v>4.6616147330689186</v>
       </c>
@@ -26790,11 +26784,11 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="955" t="s">
-        <v>615</v>
-      </c>
-      <c r="B95" s="955"/>
-      <c r="C95" s="956"/>
+      <c r="A95" s="957" t="s">
+        <v>608</v>
+      </c>
+      <c r="B95" s="957"/>
+      <c r="C95" s="958"/>
       <c r="D95" s="434">
         <v>2.4068196206646268</v>
       </c>
@@ -26815,11 +26809,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="955" t="s">
-        <v>616</v>
-      </c>
-      <c r="B96" s="955"/>
-      <c r="C96" s="956"/>
+      <c r="A96" s="957" t="s">
+        <v>609</v>
+      </c>
+      <c r="B96" s="957"/>
+      <c r="C96" s="958"/>
       <c r="D96" s="434">
         <v>17.073234304951512</v>
       </c>
@@ -26840,11 +26834,11 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="955" t="s">
-        <v>617</v>
-      </c>
-      <c r="B97" s="955"/>
-      <c r="C97" s="956"/>
+      <c r="A97" s="957" t="s">
+        <v>610</v>
+      </c>
+      <c r="B97" s="957"/>
+      <c r="C97" s="958"/>
       <c r="D97" s="434">
         <v>2.1654722793543839</v>
       </c>
@@ -26865,9 +26859,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="955"/>
-      <c r="B98" s="955"/>
-      <c r="C98" s="956"/>
+      <c r="A98" s="957"/>
+      <c r="B98" s="957"/>
+      <c r="C98" s="958"/>
       <c r="D98" s="434"/>
       <c r="E98" s="433"/>
       <c r="F98" s="434"/>
@@ -26876,11 +26870,11 @@
       <c r="I98" s="433"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="947" t="s">
-        <v>618</v>
-      </c>
-      <c r="B99" s="947"/>
-      <c r="C99" s="948"/>
+      <c r="A99" s="955" t="s">
+        <v>611</v>
+      </c>
+      <c r="B99" s="955"/>
+      <c r="C99" s="956"/>
       <c r="D99" s="434">
         <v>14.43286511863043</v>
       </c>
@@ -26901,11 +26895,11 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="955" t="s">
-        <v>619</v>
-      </c>
-      <c r="B100" s="955"/>
-      <c r="C100" s="956"/>
+      <c r="A100" s="957" t="s">
+        <v>612</v>
+      </c>
+      <c r="B100" s="957"/>
+      <c r="C100" s="958"/>
       <c r="D100" s="434">
         <v>6.1040664265206095</v>
       </c>
@@ -26926,11 +26920,11 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="955" t="s">
-        <v>620</v>
-      </c>
-      <c r="B101" s="955"/>
-      <c r="C101" s="956"/>
+      <c r="A101" s="957" t="s">
+        <v>613</v>
+      </c>
+      <c r="B101" s="957"/>
+      <c r="C101" s="958"/>
       <c r="D101" s="434">
         <v>0.79521235150680292</v>
       </c>
@@ -26951,11 +26945,11 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="955" t="s">
-        <v>621</v>
-      </c>
-      <c r="B102" s="955"/>
-      <c r="C102" s="956"/>
+      <c r="A102" s="957" t="s">
+        <v>614</v>
+      </c>
+      <c r="B102" s="957"/>
+      <c r="C102" s="958"/>
       <c r="D102" s="434">
         <v>1.5235934139994689</v>
       </c>
@@ -26976,11 +26970,11 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="955" t="s">
-        <v>622</v>
-      </c>
-      <c r="B103" s="955"/>
-      <c r="C103" s="956"/>
+      <c r="A103" s="957" t="s">
+        <v>615</v>
+      </c>
+      <c r="B103" s="957"/>
+      <c r="C103" s="958"/>
       <c r="D103" s="434">
         <v>0.7135499445511162</v>
       </c>
@@ -27001,11 +26995,11 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="955" t="s">
-        <v>623</v>
-      </c>
-      <c r="B104" s="955"/>
-      <c r="C104" s="956"/>
+      <c r="A104" s="957" t="s">
+        <v>616</v>
+      </c>
+      <c r="B104" s="957"/>
+      <c r="C104" s="958"/>
       <c r="D104" s="434">
         <v>1.5191509506461851</v>
       </c>
@@ -27026,11 +27020,11 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="955" t="s">
-        <v>624</v>
-      </c>
-      <c r="B105" s="955"/>
-      <c r="C105" s="956"/>
+      <c r="A105" s="957" t="s">
+        <v>617</v>
+      </c>
+      <c r="B105" s="957"/>
+      <c r="C105" s="958"/>
       <c r="D105" s="434">
         <v>3.7772920314062479</v>
       </c>
@@ -27051,9 +27045,9 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="947"/>
-      <c r="B106" s="947"/>
-      <c r="C106" s="948"/>
+      <c r="A106" s="955"/>
+      <c r="B106" s="955"/>
+      <c r="C106" s="956"/>
       <c r="D106" s="434"/>
       <c r="E106" s="433"/>
       <c r="F106" s="434"/>
@@ -27062,11 +27056,11 @@
       <c r="I106" s="433"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="947" t="s">
-        <v>625</v>
-      </c>
-      <c r="B107" s="947"/>
-      <c r="C107" s="948"/>
+      <c r="A107" s="955" t="s">
+        <v>618</v>
+      </c>
+      <c r="B107" s="955"/>
+      <c r="C107" s="956"/>
       <c r="D107" s="434">
         <v>65.26896498121863</v>
       </c>
@@ -27087,9 +27081,9 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="949"/>
-      <c r="B108" s="949"/>
-      <c r="C108" s="950"/>
+      <c r="A108" s="961"/>
+      <c r="B108" s="961"/>
+      <c r="C108" s="962"/>
       <c r="D108" s="434"/>
       <c r="E108" s="433"/>
       <c r="F108" s="434"/>
@@ -27098,11 +27092,11 @@
       <c r="I108" s="433"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="951" t="s">
-        <v>626</v>
-      </c>
-      <c r="B109" s="951"/>
-      <c r="C109" s="952"/>
+      <c r="A109" s="959" t="s">
+        <v>619</v>
+      </c>
+      <c r="B109" s="959"/>
+      <c r="C109" s="960"/>
       <c r="D109" s="434">
         <v>7.0376385600189595</v>
       </c>
@@ -27123,9 +27117,9 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="953"/>
-      <c r="B110" s="953"/>
-      <c r="C110" s="954"/>
+      <c r="A110" s="963"/>
+      <c r="B110" s="963"/>
+      <c r="C110" s="964"/>
       <c r="D110" s="432"/>
       <c r="E110" s="432"/>
       <c r="F110" s="431"/>
@@ -27146,7 +27140,7 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="117" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -27205,36 +27199,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27263,7 +27257,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -27285,7 +27279,7 @@
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="940" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B4" s="295"/>
       <c r="C4" s="295"/>
@@ -27293,7 +27287,7 @@
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="429" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B5" s="295"/>
       <c r="C5" s="295"/>
@@ -27307,7 +27301,7 @@
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="220" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B7" s="944">
         <v>2018</v>
@@ -27316,7 +27310,7 @@
         <v>2019</v>
       </c>
       <c r="D7" s="943" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27327,7 +27321,7 @@
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="134" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B9" s="452">
         <v>17642.513076596795</v>
@@ -27347,7 +27341,7 @@
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="292" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B11" s="451">
         <v>3624.4844737863709</v>
@@ -27361,7 +27355,7 @@
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B12" s="451">
         <v>2409.3478049078312</v>
@@ -27375,7 +27369,7 @@
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B13" s="451">
         <v>396.52924206205932</v>
@@ -27389,7 +27383,7 @@
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B14" s="451">
         <v>818.34922976515713</v>
@@ -27409,7 +27403,7 @@
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="292" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B16" s="451">
         <v>1617.3772759298802</v>
@@ -27429,7 +27423,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="292" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B18" s="451">
         <v>1779.7441649035022</v>
@@ -27443,7 +27437,7 @@
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B19" s="451">
         <v>266.64044061259557</v>
@@ -27457,7 +27451,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B20" s="451">
         <v>160.38871834516252</v>
@@ -27471,7 +27465,7 @@
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B21" s="451">
         <v>1243.6497164463274</v>
@@ -27485,7 +27479,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B22" s="451">
         <v>108.75425449538514</v>
@@ -27505,7 +27499,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="292" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B24" s="451">
         <v>2414.7919808234756</v>
@@ -27519,7 +27513,7 @@
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B25" s="451">
         <v>933.67484509683709</v>
@@ -27533,7 +27527,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B26" s="451">
         <v>309.21097002355708</v>
@@ -27547,7 +27541,7 @@
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B27" s="451">
         <v>115.3058991447692</v>
@@ -27561,7 +27555,7 @@
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B28" s="451">
         <v>354.88242203008571</v>
@@ -27575,7 +27569,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B29" s="451">
         <v>343.77385754732285</v>
@@ -27589,7 +27583,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B30" s="451">
         <v>367.88361147860519</v>
@@ -27609,7 +27603,7 @@
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="292" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B32" s="451">
         <v>7441.7355301783691</v>
@@ -27629,7 +27623,7 @@
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="356" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B34" s="451">
         <v>631.54200497520026</v>
@@ -27649,7 +27643,7 @@
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="292" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B36" s="451">
         <v>132.83764600000001</v>
@@ -27670,7 +27664,7 @@
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27714,7 +27708,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="444" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -27725,7 +27719,7 @@
     </row>
     <row r="2" spans="1:7" s="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="965" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B2" s="966"/>
       <c r="C2" s="966"/>
@@ -27736,7 +27730,7 @@
     </row>
     <row r="3" spans="1:7" s="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="967" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B3" s="968"/>
       <c r="C3" s="968"/>
@@ -27750,7 +27744,7 @@
     </row>
     <row r="5" spans="1:7" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="307" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B5" s="473"/>
       <c r="C5" s="473"/>
@@ -27773,21 +27767,21 @@
     <row r="7" spans="1:7" s="10" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107"/>
       <c r="B7" s="969" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C7" s="970"/>
       <c r="D7" s="969" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E7" s="970"/>
       <c r="F7" s="969" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G7" s="971"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="220" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B8" s="944">
         <v>2018</v>
@@ -27851,7 +27845,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="304" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B12" s="461"/>
       <c r="C12" s="464"/>
@@ -27862,7 +27856,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B13" s="461">
         <v>226.30097303585276</v>
@@ -27885,7 +27879,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B14" s="461">
         <v>174.26381719825889</v>
@@ -27917,7 +27911,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="304" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B16" s="461"/>
       <c r="C16" s="462"/>
@@ -27928,7 +27922,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B17" s="461">
         <v>180.94630148568709</v>
@@ -27951,7 +27945,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B18" s="461">
         <v>173.2209482162049</v>
@@ -28040,7 +28034,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B23" s="461">
         <v>82.660265911819337</v>
@@ -28086,7 +28080,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B25" s="461">
         <v>168.17013176500552</v>
@@ -28118,7 +28112,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="304" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B27" s="461"/>
       <c r="C27" s="462"/>
@@ -28129,7 +28123,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B28" s="461">
         <v>181.66928548661065</v>
@@ -28184,7 +28178,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="304" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B31" s="461"/>
       <c r="C31" s="462"/>
@@ -28195,7 +28189,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B32" s="461">
         <v>176.02893818566926</v>
@@ -28218,7 +28212,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B33" s="461"/>
       <c r="C33" s="462"/>
@@ -28229,7 +28223,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="134" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B34" s="461">
         <v>220.66350823127249</v>
@@ -28252,7 +28246,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="304" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B35" s="461">
         <v>231.44575662237582</v>
@@ -28315,7 +28309,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="454" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B40" s="297"/>
       <c r="C40" s="297"/>
@@ -28326,7 +28320,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="454" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B41" s="297"/>
       <c r="C41" s="297"/>
@@ -28337,13 +28331,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B42" s="297"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -29025,7 +29019,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B1" s="306"/>
       <c r="C1" s="306"/>
@@ -29040,7 +29034,7 @@
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="307" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B3" s="306"/>
       <c r="C3" s="306"/>
@@ -29050,7 +29044,7 @@
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="297" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B4" s="306"/>
       <c r="C4" s="306"/>
@@ -29064,19 +29058,19 @@
         <v>123</v>
       </c>
       <c r="B6" s="293" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D6" s="491" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29707,7 +29701,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="475" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -29720,7 +29714,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="475" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -29746,7 +29740,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -29759,7 +29753,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -29772,7 +29766,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="90" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -29954,7 +29948,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B1" s="279"/>
       <c r="C1" s="279"/>
@@ -29966,7 +29960,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B2" s="279"/>
       <c r="C2" s="279"/>
@@ -29981,7 +29975,7 @@
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B4" s="279"/>
       <c r="C4" s="279"/>
@@ -29993,7 +29987,7 @@
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B5" s="279"/>
       <c r="C5" s="279"/>
@@ -30017,7 +30011,7 @@
       <c r="A7" s="107"/>
       <c r="B7" s="501"/>
       <c r="C7" s="220" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D7" s="220"/>
       <c r="E7" s="220"/>
@@ -30029,13 +30023,13 @@
         <v>123</v>
       </c>
       <c r="B8" s="427" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E8" s="197" t="s">
         <v>324</v>
@@ -30044,10 +30038,10 @@
         <v>438</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H8" s="178" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -30629,7 +30623,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="265" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -30693,7 +30687,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B1" s="473"/>
       <c r="C1" s="473"/>
@@ -30733,7 +30727,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B5" s="505">
         <v>125</v>
@@ -30760,7 +30754,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B7" s="505">
         <v>247815</v>
@@ -30782,7 +30776,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="506" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B8" s="505">
         <v>243390</v>
@@ -30803,7 +30797,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="507" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B9" s="505">
         <v>118947</v>
@@ -30823,7 +30817,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="507" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B10" s="505">
         <v>124443</v>
@@ -30843,7 +30837,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="506" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B11" s="505">
         <v>4425</v>
@@ -30871,17 +30865,17 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -30927,7 +30921,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -30936,7 +30930,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -30950,7 +30944,7 @@
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="296" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B4" s="295"/>
       <c r="C4" s="295"/>
@@ -30972,13 +30966,13 @@
         <v>124</v>
       </c>
       <c r="C6" s="944" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D6" s="944" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E6" s="943" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -31175,7 +31169,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="115" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -31207,7 +31201,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -31217,7 +31211,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -31235,7 +31229,7 @@
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="940" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B4" s="295"/>
       <c r="C4" s="295"/>
@@ -31256,19 +31250,19 @@
         <v>123</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -31449,7 +31443,7 @@
     <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="518" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -31478,7 +31472,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -31494,22 +31488,22 @@
       <c r="A3" s="533"/>
       <c r="B3" s="532"/>
       <c r="C3" s="531" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D3" s="530"/>
     </row>
     <row r="4" spans="1:4" s="81" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="197" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B4" s="197" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C4" s="197" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D4" s="178" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -31519,16 +31513,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="939" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B6" s="527">
         <v>10243165.023968566</v>
       </c>
       <c r="C6" s="529" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D6" s="528" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -31547,7 +31541,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="939" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B8" s="527">
         <v>80554</v>
@@ -31561,7 +31555,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="939" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B9" s="527">
         <v>65007.078000000001</v>
@@ -31575,7 +31569,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="941" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B10" s="527">
         <v>20459.676424085181</v>
@@ -31595,22 +31589,22 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="523" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="524" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="523" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="522" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -31625,7 +31619,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="115" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -31655,7 +31649,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -31664,7 +31658,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -31681,29 +31675,29 @@
     <row r="4" spans="1:5" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="533"/>
       <c r="B4" s="551" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C4" s="550"/>
       <c r="D4" s="549" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E4" s="548"/>
     </row>
     <row r="5" spans="1:5" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="944" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B5" s="440" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C5" s="944" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D5" s="944" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E5" s="943" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -31714,7 +31708,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="541" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B7" s="547"/>
       <c r="C7" s="547"/>
@@ -31723,7 +31717,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="539" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B8" s="544" t="s">
         <v>536</v>
@@ -31740,7 +31734,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="539" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B9" s="538">
         <v>118905.09232559933</v>
@@ -31757,7 +31751,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="539" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B10" s="538">
         <v>1479.6130549467789</v>
@@ -31781,7 +31775,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="541" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B12" s="538"/>
       <c r="C12" s="540"/>
@@ -31790,7 +31784,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="539" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B13" s="538">
         <v>15753.950846545589</v>
@@ -31807,7 +31801,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="539" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B14" s="538">
         <v>165265.94425352986</v>
@@ -31824,7 +31818,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="539" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B15" s="538">
         <v>1923.2095838640071</v>
@@ -31864,7 +31858,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B19" s="297"/>
       <c r="C19" s="297"/>
@@ -31873,7 +31867,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B20" s="297"/>
       <c r="C20" s="297"/>
@@ -31882,7 +31876,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="535" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B21" s="297"/>
       <c r="C21" s="297"/>
@@ -31891,7 +31885,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="535" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B22" s="297"/>
       <c r="C22" s="297"/>
@@ -31900,7 +31894,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B23" s="297"/>
       <c r="C23" s="297"/>
@@ -31909,7 +31903,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B24" s="297"/>
       <c r="C24" s="297"/>
@@ -31953,7 +31947,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B1" s="306"/>
       <c r="C1" s="306"/>
@@ -31965,7 +31959,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B2" s="306"/>
       <c r="C2" s="306"/>
@@ -31989,16 +31983,16 @@
       <c r="A4" s="107"/>
       <c r="B4" s="107"/>
       <c r="C4" s="8" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="106"/>
       <c r="H4" s="972" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="81" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -32006,22 +32000,22 @@
         <v>123</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="H5" s="973"/>
     </row>
@@ -32852,7 +32846,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B42" s="306"/>
       <c r="C42" s="306"/>
@@ -32864,7 +32858,7 @@
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B43" s="306"/>
       <c r="C43" s="306"/>
@@ -32879,82 +32873,82 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="552" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="116" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="116" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="116" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -32993,7 +32987,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B1" s="279"/>
       <c r="C1" s="279"/>
@@ -33004,7 +32998,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B2" s="279"/>
       <c r="C2" s="279"/>
@@ -33024,12 +33018,12 @@
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="574" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C4" s="575"/>
       <c r="D4" s="573"/>
       <c r="E4" s="574" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="F4" s="573"/>
       <c r="G4" s="198"/>
@@ -33045,7 +33039,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="178" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="E5" s="389" t="s">
         <v>124</v>
@@ -33054,7 +33048,7 @@
         <v>82</v>
       </c>
       <c r="G5" s="178" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33807,7 +33801,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -33818,7 +33812,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B2" s="589"/>
       <c r="C2" s="589"/>
@@ -33835,7 +33829,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="429" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B4" s="429"/>
       <c r="C4" s="429"/>
@@ -33846,7 +33840,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="587" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B5" s="587"/>
       <c r="C5" s="587"/>
@@ -33857,7 +33851,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="587" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B6" s="587"/>
       <c r="C6" s="587"/>
@@ -33877,7 +33871,7 @@
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="220" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B8" s="142">
         <v>2014</v>
@@ -33908,7 +33902,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="585" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B10" s="580">
         <v>62999</v>
@@ -33940,7 +33934,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="292" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B12" s="583">
         <v>44304</v>
@@ -33963,7 +33957,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="292" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B13" s="583">
         <v>18695</v>
@@ -33995,7 +33989,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="G16" s="577"/>
     </row>
@@ -35064,7 +35058,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -35078,16 +35072,16 @@
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="220" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B3" s="944" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C3" s="603" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D3" s="943" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35097,7 +35091,7 @@
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B5" s="602">
         <v>122</v>
@@ -35120,7 +35114,7 @@
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="356" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B7" s="529" t="s">
         <v>85</v>
@@ -35134,7 +35128,7 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B8" s="529" t="s">
         <v>85</v>
@@ -35148,7 +35142,7 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B9" s="529" t="s">
         <v>85</v>
@@ -35162,7 +35156,7 @@
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B10" s="529" t="s">
         <v>85</v>
@@ -35176,7 +35170,7 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B11" s="529" t="s">
         <v>85</v>
@@ -35190,7 +35184,7 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B12" s="529" t="s">
         <v>85</v>
@@ -35209,7 +35203,7 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="356" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B14" s="595">
         <v>5</v>
@@ -35223,7 +35217,7 @@
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="356" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B15" s="529" t="s">
         <v>85</v>
@@ -35237,7 +35231,7 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="292" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B16" s="529" t="s">
         <v>85</v>
@@ -35251,7 +35245,7 @@
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="356" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B17" s="595">
         <v>2</v>
@@ -35265,7 +35259,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="356" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B18" s="529" t="s">
         <v>85</v>
@@ -35279,7 +35273,7 @@
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="356" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B19" s="595">
         <v>8</v>
@@ -35293,7 +35287,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="292" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B20" s="595">
         <v>28</v>
@@ -35307,7 +35301,7 @@
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="597" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B21" s="595">
         <v>12</v>
@@ -35321,7 +35315,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="597" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B22" s="595">
         <v>16</v>
@@ -35335,7 +35329,7 @@
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="292" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B23" s="529" t="s">
         <v>85</v>
@@ -35349,7 +35343,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="292" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B24" s="529" t="s">
         <v>85</v>
@@ -35363,7 +35357,7 @@
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="292" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B25" s="595">
         <v>51</v>
@@ -35391,22 +35385,22 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="535" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="535" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -35439,7 +35433,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B1" s="605"/>
       <c r="C1" s="605"/>
@@ -35455,19 +35449,19 @@
     </row>
     <row r="3" spans="1:5" s="81" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="197" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B3" s="197" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C3" s="197" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D3" s="197" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E3" s="178" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -35478,7 +35472,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="610" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B5" s="610"/>
       <c r="C5" s="610"/>
@@ -35486,7 +35480,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="610" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B6" s="610"/>
       <c r="C6" s="610"/>
@@ -35502,7 +35496,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="610" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B8" s="609">
         <v>80</v>
@@ -35519,16 +35513,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="610" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B9" s="561" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C9" s="561" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D9" s="561" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="E9" s="611">
         <v>1380547</v>
@@ -35543,7 +35537,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="610" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B11" s="618"/>
       <c r="C11" s="618"/>
@@ -35552,7 +35546,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="610" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B12" s="618"/>
       <c r="C12" s="618"/>
@@ -35568,7 +35562,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="610" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B14" s="609">
         <v>62</v>
@@ -35592,7 +35586,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="610" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B16" s="610"/>
       <c r="C16" s="610"/>
@@ -35601,7 +35595,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="610" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B17" s="610"/>
       <c r="C17" s="610"/>
@@ -35617,7 +35611,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="610" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B19" s="609">
         <v>80</v>
@@ -35634,7 +35628,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="610" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B20" s="609">
         <v>80</v>
@@ -35651,7 +35645,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="610" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B21" s="609">
         <v>80</v>
@@ -35668,7 +35662,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="610" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B22" s="609">
         <v>80</v>
@@ -35685,7 +35679,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="610" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B23" s="609">
         <v>80</v>
@@ -35702,7 +35696,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="610" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B24" s="609">
         <v>80</v>
@@ -35719,7 +35713,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="610" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B25" s="609">
         <v>80</v>
@@ -35736,7 +35730,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="610" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B26" s="609">
         <v>80</v>
@@ -35753,7 +35747,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="610" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B27" s="609">
         <v>80</v>
@@ -35770,7 +35764,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="610" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B28" s="609">
         <v>80</v>
@@ -35787,7 +35781,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="610" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B29" s="609">
         <v>80</v>
@@ -35804,7 +35798,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="610" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B30" s="609">
         <v>80</v>
@@ -35821,7 +35815,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="610" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B31" s="609">
         <v>80</v>
@@ -35838,7 +35832,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="610" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B32" s="609">
         <v>80</v>
@@ -35855,7 +35849,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="610" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B33" s="609">
         <v>80</v>
@@ -35872,16 +35866,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="610" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B34" s="561" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C34" s="561" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D34" s="561" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="E34" s="611">
         <v>310629</v>
@@ -35896,7 +35890,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="610" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B36" s="615"/>
       <c r="C36" s="614"/>
@@ -35905,7 +35899,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="610" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B37" s="615"/>
       <c r="C37" s="614"/>
@@ -35921,7 +35915,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="610" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B39" s="609">
         <v>80</v>
@@ -35938,7 +35932,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="610" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B40" s="609">
         <v>80</v>
@@ -35955,7 +35949,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="610" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B41" s="609">
         <v>80</v>
@@ -35967,12 +35961,12 @@
         <v>24564</v>
       </c>
       <c r="E41" s="612" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="610" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B42" s="609">
         <v>80</v>
@@ -35984,12 +35978,12 @@
         <v>30089</v>
       </c>
       <c r="E42" s="612" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="610" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B43" s="609">
         <v>80</v>
@@ -36006,7 +36000,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="610" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B44" s="609">
         <v>80</v>
@@ -36023,7 +36017,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="610" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B45" s="609">
         <v>80</v>
@@ -36056,7 +36050,7 @@
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B50" s="605"/>
       <c r="C50" s="605"/>
@@ -36065,7 +36059,7 @@
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B51" s="605"/>
       <c r="C51" s="605"/>
@@ -36077,72 +36071,72 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -36174,14 +36168,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="645" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B1" s="671"/>
       <c r="C1" s="671"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="645" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B2" s="671"/>
       <c r="C2" s="671"/>
@@ -36191,7 +36185,7 @@
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="672" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B4" s="671"/>
       <c r="C4" s="671"/>
@@ -36201,7 +36195,7 @@
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="944" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B6" s="142">
         <v>2017</v>
@@ -36221,7 +36215,7 @@
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="639" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B8" s="670"/>
       <c r="C8" s="670"/>
@@ -36235,7 +36229,7 @@
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="638" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B10" s="666">
         <v>255558</v>
@@ -36249,7 +36243,7 @@
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="638" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B11" s="666">
         <v>56348</v>
@@ -36263,7 +36257,7 @@
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="638" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B12" s="666">
         <v>654929</v>
@@ -36277,7 +36271,7 @@
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="638" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B13" s="354" t="s">
         <v>85</v>
@@ -36291,7 +36285,7 @@
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="638" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B14" s="666">
         <v>1115636</v>
@@ -36305,7 +36299,7 @@
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="638" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B15" s="666">
         <v>45391</v>
@@ -36319,7 +36313,7 @@
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="638" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B16" s="666">
         <v>45468</v>
@@ -36333,21 +36327,21 @@
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="638" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B17" s="354" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="C17" s="354" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="D17" s="354" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="638" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B18" s="666">
         <v>19853</v>
@@ -36361,7 +36355,7 @@
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="638" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B19" s="666">
         <v>68759</v>
@@ -36375,7 +36369,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="638" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B20" s="656">
         <v>257245</v>
@@ -36384,12 +36378,12 @@
         <v>239034</v>
       </c>
       <c r="D20" s="666" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="653" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B21" s="354" t="s">
         <v>85</v>
@@ -36398,12 +36392,12 @@
         <v>85</v>
       </c>
       <c r="D21" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="653" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B22" s="656">
         <v>36889</v>
@@ -36412,12 +36406,12 @@
         <v>31657</v>
       </c>
       <c r="D22" s="668" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="638" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B23" s="666">
         <v>1329</v>
@@ -36431,7 +36425,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="638" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B24" s="666">
         <v>560479</v>
@@ -36445,7 +36439,7 @@
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="638" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B25" s="666">
         <v>226601</v>
@@ -36459,7 +36453,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="638" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B26" s="666">
         <v>131254</v>
@@ -36473,7 +36467,7 @@
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="653" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="B27" s="637">
         <v>129000</v>
@@ -36487,7 +36481,7 @@
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="653" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B28" s="637">
         <v>270180</v>
@@ -36501,7 +36495,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="638" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B29" s="637">
         <v>260155</v>
@@ -36515,7 +36509,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="638" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B30" s="666">
         <v>670798</v>
@@ -36524,26 +36518,26 @@
         <v>669887</v>
       </c>
       <c r="D30" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="638" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B31" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C31" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D31" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="638" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B32" s="666">
         <v>11387</v>
@@ -36552,26 +36546,26 @@
         <v>85</v>
       </c>
       <c r="D32" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="638" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B33" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C33" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D33" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="638" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B34" s="666">
         <v>391140</v>
@@ -36585,7 +36579,7 @@
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="653" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B35" s="637">
         <v>11164</v>
@@ -36599,21 +36593,21 @@
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="638" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B36" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C36" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D36" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="638" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B37" s="666">
         <v>95023</v>
@@ -36627,7 +36621,7 @@
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="638" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B38" s="666">
         <v>417724</v>
@@ -36641,7 +36635,7 @@
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="638" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="B39" s="666">
         <v>52000</v>
@@ -36650,12 +36644,12 @@
         <v>52000</v>
       </c>
       <c r="D39" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="638" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B40" s="666">
         <v>323007</v>
@@ -36669,7 +36663,7 @@
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="653" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B41" s="666">
         <v>1947495</v>
@@ -36707,14 +36701,14 @@
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="645" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B46" s="644"/>
       <c r="C46" s="644"/>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="645" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B47" s="644"/>
       <c r="C47" s="644"/>
@@ -36726,7 +36720,7 @@
     </row>
     <row r="49" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" s="944" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B49" s="142">
         <v>2017</v>
@@ -36746,7 +36740,7 @@
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="639" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B51" s="662"/>
       <c r="C51" s="661"/>
@@ -36760,7 +36754,7 @@
     </row>
     <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="638" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B53" s="656">
         <v>1772</v>
@@ -36774,7 +36768,7 @@
     </row>
     <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="638" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B54" s="354" t="s">
         <v>85</v>
@@ -36783,12 +36777,12 @@
         <v>85</v>
       </c>
       <c r="D54" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="638" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B55" s="637">
         <v>2016702</v>
@@ -36803,7 +36797,7 @@
     </row>
     <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="655" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B56" s="637">
         <v>26674</v>
@@ -36812,12 +36806,12 @@
         <v>85</v>
       </c>
       <c r="D56" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="659" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B57" s="637">
         <v>196857</v>
@@ -36832,7 +36826,7 @@
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="658" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B58" s="656">
         <v>13207</v>
@@ -36846,7 +36840,7 @@
     </row>
     <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="638" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B59" s="637">
         <v>10400</v>
@@ -36860,21 +36854,21 @@
     </row>
     <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="638" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B60" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C60" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D60" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="638" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B61" s="637">
         <v>18079</v>
@@ -36888,7 +36882,7 @@
     </row>
     <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="638" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B62" s="637">
         <v>264415</v>
@@ -36902,7 +36896,7 @@
     </row>
     <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="653" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B63" s="637">
         <v>505735</v>
@@ -36917,7 +36911,7 @@
     </row>
     <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="638" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B64" s="637">
         <v>147259</v>
@@ -36932,7 +36926,7 @@
     </row>
     <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="655" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B65" s="637">
         <v>380000</v>
@@ -36941,12 +36935,12 @@
         <v>162500</v>
       </c>
       <c r="D65" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="655" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B66" s="637">
         <v>9300</v>
@@ -36955,7 +36949,7 @@
         <v>14500</v>
       </c>
       <c r="D66" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -36966,7 +36960,7 @@
     </row>
     <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="639" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B68" s="637"/>
       <c r="C68" s="652"/>
@@ -36980,7 +36974,7 @@
     </row>
     <row r="70" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="638" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B70" s="637">
         <v>36621</v>
@@ -36994,7 +36988,7 @@
     </row>
     <row r="71" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="638" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B71" s="637">
         <v>340107</v>
@@ -37008,7 +37002,7 @@
     </row>
     <row r="72" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="638" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B72" s="637">
         <v>1112390</v>
@@ -37023,21 +37017,21 @@
     </row>
     <row r="73" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="638" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B73" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C73" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D73" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="638" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B74" s="637">
         <v>385</v>
@@ -37051,7 +37045,7 @@
     </row>
     <row r="75" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="653" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B75" s="637">
         <v>7000</v>
@@ -37065,21 +37059,21 @@
     </row>
     <row r="76" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="638" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B76" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C76" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D76" s="354" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="638" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B77" s="637">
         <v>23500</v>
@@ -37093,7 +37087,7 @@
     </row>
     <row r="78" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="638" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B78" s="637">
         <v>25152</v>
@@ -37107,7 +37101,7 @@
     </row>
     <row r="79" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="654" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B79" s="637">
         <v>14340</v>
@@ -37121,7 +37115,7 @@
     </row>
     <row r="80" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="654" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="B80" s="637">
         <v>228</v>
@@ -37135,7 +37129,7 @@
     </row>
     <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="654" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="B81" s="637">
         <v>10584</v>
@@ -37149,7 +37143,7 @@
     </row>
     <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="653" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B82" s="637">
         <v>11884</v>
@@ -37158,12 +37152,12 @@
         <v>16974</v>
       </c>
       <c r="D82" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="638" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B83" s="354" t="s">
         <v>85</v>
@@ -37200,14 +37194,14 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="645" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B88" s="644"/>
       <c r="C88" s="644"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="645" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B89" s="644"/>
       <c r="C89" s="644"/>
@@ -37219,7 +37213,7 @@
     </row>
     <row r="91" spans="1:4" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="944" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B91" s="142">
         <v>2017</v>
@@ -37239,7 +37233,7 @@
     </row>
     <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="639" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B93" s="641"/>
       <c r="C93" s="641"/>
@@ -37253,7 +37247,7 @@
     </row>
     <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="638" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B95" s="637">
         <v>3829</v>
@@ -37262,12 +37256,12 @@
         <v>3727</v>
       </c>
       <c r="D95" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="638" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B96" s="637">
         <v>42050</v>
@@ -37281,7 +37275,7 @@
     </row>
     <row r="97" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="638" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B97" s="637">
         <v>203598</v>
@@ -37295,7 +37289,7 @@
     </row>
     <row r="98" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="638" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B98" s="637">
         <v>94268</v>
@@ -37309,7 +37303,7 @@
     </row>
     <row r="99" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="638" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B99" s="637">
         <v>366</v>
@@ -37318,7 +37312,7 @@
         <v>228</v>
       </c>
       <c r="D99" s="354" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -37329,7 +37323,7 @@
     </row>
     <row r="101" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="639" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B101" s="637"/>
       <c r="C101" s="637"/>
@@ -37343,7 +37337,7 @@
     </row>
     <row r="103" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="638" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B103" s="637">
         <v>76512</v>
@@ -37364,7 +37358,7 @@
     </row>
     <row r="105" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="639" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B105" s="637"/>
       <c r="C105" s="637"/>
@@ -37378,7 +37372,7 @@
     </row>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="638" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B107" s="637">
         <v>11258</v>
@@ -37404,158 +37398,158 @@
     </row>
     <row r="110" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="625" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="630" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="625" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="624" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="624" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="630" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="630" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="974" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B117" s="974"/>
       <c r="C117" s="974"/>
     </row>
     <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="625" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B118" s="945"/>
       <c r="C118" s="945"/>
     </row>
     <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="625" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="630" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="625" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="625" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="625" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="625" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="630" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="624" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="627" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="629" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="D127" s="628"/>
     </row>
     <row r="128" spans="1:4" s="627" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="629" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="D128" s="628"/>
     </row>
     <row r="129" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="624" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="625" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="624" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="625" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="626" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="626" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="625" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="625" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="625" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="624" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="623" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -37593,7 +37587,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="393" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B1" s="690"/>
       <c r="C1" s="690"/>
@@ -37610,26 +37604,26 @@
     <row r="3" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="107"/>
       <c r="B3" s="198" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C3" s="198"/>
       <c r="D3" s="220"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="944" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B4" s="105" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="944" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="D4" s="944" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="E4" s="943" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -37964,7 +37958,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="541" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B24" s="683">
         <v>371493.97</v>
@@ -38007,7 +38001,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="687" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B27" s="683"/>
       <c r="C27" s="682"/>
@@ -38023,7 +38017,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="684" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B29" s="683">
         <v>33264.620000000003</v>
@@ -38032,7 +38026,7 @@
         <v>33264.47</v>
       </c>
       <c r="D29" s="681" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E29" s="680">
         <v>994394</v>
@@ -38041,7 +38035,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="684" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="B30" s="683">
         <v>325605.28000000003</v>
@@ -38059,7 +38053,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="684" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B31" s="683">
         <v>154.46</v>
@@ -38071,13 +38065,13 @@
         <v>31.44</v>
       </c>
       <c r="E31" s="681" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="F31" s="679"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="684" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B32" s="683">
         <v>10778.88</v>
@@ -38095,7 +38089,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="684" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B33" s="683">
         <v>1163.05</v>
@@ -38113,7 +38107,7 @@
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="684" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B34" s="683">
         <v>419.8</v>
@@ -38131,7 +38125,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="684" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B35" s="683">
         <v>86.24</v>
@@ -38149,7 +38143,7 @@
     </row>
     <row r="36" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="684" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B36" s="683">
         <v>21.639999999955762</v>
@@ -38175,47 +38169,47 @@
     <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:6" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="369" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="369" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="369" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="369" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="369" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="369" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="674" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="673" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="369" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -38246,7 +38240,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="712" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="B1" s="709"/>
       <c r="C1" s="709"/>
@@ -38260,7 +38254,7 @@
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="710" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="C3" s="709"/>
       <c r="D3" s="709"/>
@@ -38275,22 +38269,22 @@
       <c r="A5" s="706"/>
       <c r="B5" s="706"/>
       <c r="C5" s="220" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="D5" s="198"/>
     </row>
     <row r="6" spans="1:4" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="944" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="603" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="944" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="943" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38300,7 +38294,7 @@
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="704" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B8" s="701">
         <v>63</v>
@@ -38698,7 +38692,7 @@
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="703" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B37" s="701"/>
       <c r="C37" s="700"/>
@@ -38754,7 +38748,7 @@
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="702" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="B42" s="701">
         <v>28</v>
@@ -38792,17 +38786,17 @@
     </row>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="674" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="673" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="692" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="673" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="B48" s="691"/>
       <c r="C48" s="691"/>
@@ -38810,7 +38804,7 @@
     </row>
     <row r="49" spans="1:2" s="692" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="553" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B49" s="693"/>
     </row>
@@ -38840,7 +38834,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="712" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="B1" s="711"/>
       <c r="C1" s="711"/>
@@ -38852,7 +38846,7 @@
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="721" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B3" s="709"/>
       <c r="C3" s="709"/>
@@ -38865,19 +38859,19 @@
     <row r="5" spans="1:3" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="107"/>
       <c r="B5" s="220" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="C5" s="198"/>
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="944" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B6" s="944" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="943" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38898,7 +38892,7 @@
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="702" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B10" s="716">
         <v>6175</v>
@@ -38909,7 +38903,7 @@
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="702" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B11" s="716">
         <v>5249</v>
@@ -38920,7 +38914,7 @@
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="702" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B12" s="716">
         <v>4345</v>
@@ -38931,7 +38925,7 @@
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="702" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B13" s="716">
         <v>1837.4</v>
@@ -38942,7 +38936,7 @@
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="702" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="716">
         <v>1745.5</v>
@@ -38953,7 +38947,7 @@
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="702" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B15" s="716">
         <v>1466.3</v>
@@ -38964,7 +38958,7 @@
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="702" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B16" s="716">
         <v>1462.8</v>
@@ -38975,7 +38969,7 @@
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="702" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B17" s="716">
         <v>1374.2</v>
@@ -38986,7 +38980,7 @@
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="702" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B18" s="716">
         <v>4365</v>
@@ -38997,7 +38991,7 @@
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="702" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B19" s="716">
         <v>1103.5999999999999</v>
@@ -39025,7 +39019,7 @@
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="702" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B23" s="716">
         <v>6175</v>
@@ -39036,7 +39030,7 @@
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="702" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B24" s="716">
         <v>5249</v>
@@ -39047,7 +39041,7 @@
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="702" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B25" s="716">
         <v>4345</v>
@@ -39058,7 +39052,7 @@
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="702" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B26" s="716">
         <v>1837.4</v>
@@ -39069,7 +39063,7 @@
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="702" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B27" s="716">
         <v>1745.5</v>
@@ -39080,7 +39074,7 @@
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="702" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B28" s="716">
         <v>1466.3</v>
@@ -39091,7 +39085,7 @@
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="702" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B29" s="716">
         <v>1462.8</v>
@@ -39102,7 +39096,7 @@
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="702" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B30" s="716">
         <v>1374.2</v>
@@ -39113,7 +39107,7 @@
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="702" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B31" s="716">
         <v>4365</v>
@@ -39124,7 +39118,7 @@
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="702" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B32" s="716">
         <v>1103.5999999999999</v>
@@ -39152,7 +39146,7 @@
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="702" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B36" s="716">
         <v>6175</v>
@@ -39163,7 +39157,7 @@
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="702" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B37" s="716">
         <v>5249</v>
@@ -39174,7 +39168,7 @@
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="702" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B38" s="716">
         <v>4345</v>
@@ -39185,7 +39179,7 @@
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="702" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B39" s="716">
         <v>1837.4</v>
@@ -39196,7 +39190,7 @@
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="702" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B40" s="716">
         <v>1745.5</v>
@@ -39207,7 +39201,7 @@
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="702" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B41" s="716">
         <v>1466.3</v>
@@ -39218,7 +39212,7 @@
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="702" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B42" s="716">
         <v>1462.8</v>
@@ -39229,7 +39223,7 @@
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="702" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B43" s="716">
         <v>1374.2</v>
@@ -39240,7 +39234,7 @@
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="702" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B44" s="716">
         <v>4365</v>
@@ -39251,7 +39245,7 @@
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="702" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B45" s="716">
         <v>1103.5999999999999</v>
@@ -39272,7 +39266,7 @@
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="553" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B48" s="691"/>
       <c r="C48" s="691"/>
@@ -40057,7 +40051,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -40070,7 +40064,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -40083,7 +40077,7 @@
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -40093,7 +40087,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="731" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B4" s="731"/>
       <c r="C4" s="731"/>
@@ -40115,37 +40109,37 @@
     <row r="6" spans="1:9" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="730"/>
       <c r="B6" s="975" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C6" s="975"/>
       <c r="D6" s="975"/>
       <c r="E6" s="976" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="F6" s="975"/>
       <c r="G6" s="975"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="729" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="729" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="C7" s="729" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="D7" s="729" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="E7" s="729" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="F7" s="729" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="G7" s="728" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40217,7 +40211,7 @@
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="304" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="B12" s="538">
         <v>1</v>
@@ -40332,7 +40326,7 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="304" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B17" s="538">
         <v>1</v>
@@ -40390,7 +40384,7 @@
     </row>
     <row r="21" spans="1:8" s="454" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="454" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B21" s="722"/>
       <c r="D21" s="722"/>
@@ -40398,12 +40392,12 @@
     </row>
     <row r="22" spans="1:8" s="454" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="454" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="454" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="535" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="B23" s="535"/>
       <c r="C23" s="535"/>
@@ -40411,7 +40405,7 @@
     </row>
     <row r="24" spans="1:8" s="454" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="552" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B24" s="552"/>
       <c r="C24" s="552"/>
@@ -40419,7 +40413,7 @@
     </row>
     <row r="25" spans="1:8" s="454" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="454" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="B25" s="535"/>
       <c r="C25" s="535"/>
@@ -40460,7 +40454,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B1" s="741"/>
       <c r="C1" s="741"/>
@@ -40474,7 +40468,7 @@
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="220" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B3" s="142">
         <v>2015</v>
@@ -40504,7 +40498,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="314" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="B5" s="738"/>
       <c r="C5" s="738"/>
@@ -40514,7 +40508,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B6" s="736">
         <v>203</v>
@@ -40534,7 +40528,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B7" s="736">
         <v>87</v>
@@ -40562,7 +40556,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="314" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="736"/>
       <c r="C9" s="736"/>
@@ -40572,7 +40566,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B10" s="736">
         <v>869</v>
@@ -40592,7 +40586,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B11" s="736">
         <v>180</v>
@@ -40620,7 +40614,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="314" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="B13" s="736"/>
       <c r="C13" s="736"/>
@@ -40630,7 +40624,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B14" s="736">
         <v>592780</v>
@@ -40650,7 +40644,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B15" s="736">
         <v>214249</v>
@@ -40678,32 +40672,32 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="733" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="535" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -40735,7 +40729,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="306"/>
       <c r="C1" s="306"/>
@@ -40751,7 +40745,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="307" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="306"/>
       <c r="C3" s="306"/>
@@ -40768,29 +40762,29 @@
     <row r="5" spans="1:10" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="107"/>
       <c r="B5" s="198" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C5" s="346"/>
       <c r="D5" s="141" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="E5" s="198"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="944" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="B6" s="944" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C6" s="944" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="D6" s="944" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="E6" s="943" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40829,7 +40823,7 @@
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="304" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="B10" s="686">
         <v>11</v>
@@ -40846,7 +40840,7 @@
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="304" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="B11" s="686">
         <v>1</v>
@@ -40863,7 +40857,7 @@
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="304" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B12" s="682">
         <v>4</v>
@@ -40880,7 +40874,7 @@
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="304" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="B13" s="682">
         <v>9</v>
@@ -40897,7 +40891,7 @@
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="304" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B14" s="682">
         <v>8</v>
@@ -40927,7 +40921,7 @@
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B17" s="743"/>
       <c r="C17" s="743"/>
@@ -40936,7 +40930,7 @@
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="454" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B18" s="743"/>
       <c r="C18" s="743"/>
@@ -40983,7 +40977,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="B1" s="306"/>
       <c r="C1" s="306"/>
@@ -41001,7 +40995,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="307" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="306"/>
       <c r="C3" s="306"/>
@@ -41021,19 +41015,19 @@
     <row r="5" spans="1:9" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="756"/>
       <c r="B5" s="977" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C5" s="978"/>
       <c r="D5" s="979"/>
       <c r="E5" s="980" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="F5" s="980"/>
       <c r="G5" s="980"/>
     </row>
     <row r="6" spans="1:9" s="748" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="755" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="B6" s="753">
         <v>2017</v>
@@ -41245,7 +41239,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="535" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -42141,7 +42135,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="B1" s="772"/>
       <c r="C1" s="772"/>
@@ -42150,7 +42144,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="B2" s="772"/>
       <c r="C2" s="772"/>
@@ -42166,19 +42160,19 @@
     </row>
     <row r="4" spans="1:7" s="81" customFormat="1" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="197" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B4" s="197" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F4" s="757"/>
       <c r="G4" s="757"/>
@@ -42191,7 +42185,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="134" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B6" s="769">
         <v>22562951</v>
@@ -42215,7 +42209,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="765" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="B8" s="764">
         <v>3251376</v>
@@ -42232,7 +42226,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="765" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B9" s="764">
         <v>397290</v>
@@ -42249,7 +42243,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="765" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="B10" s="764">
         <v>78751</v>
@@ -42266,7 +42260,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="765" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="764">
         <v>352562</v>
@@ -42283,7 +42277,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="765" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B12" s="764">
         <v>579434</v>
@@ -42300,7 +42294,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="765" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B13" s="764">
         <v>1251444</v>
@@ -42317,7 +42311,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="765" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B14" s="764">
         <v>724178</v>
@@ -42334,7 +42328,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="765" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="B15" s="764">
         <v>297179</v>
@@ -42351,7 +42345,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="765" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B16" s="764">
         <v>331690</v>
@@ -42368,7 +42362,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="765" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="B17" s="764">
         <v>176617</v>
@@ -42385,7 +42379,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="765" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B18" s="764">
         <v>400178</v>
@@ -42402,7 +42396,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="765" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="B19" s="764">
         <v>465457</v>
@@ -42419,7 +42413,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="765" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="B20" s="764">
         <v>471790</v>
@@ -42436,7 +42430,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="765" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="B21" s="764">
         <v>202572</v>
@@ -42453,7 +42447,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="765" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="B22" s="764">
         <v>449828</v>
@@ -42470,7 +42464,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="765" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="B23" s="764">
         <v>265256</v>
@@ -42487,7 +42481,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="765" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="B24" s="764">
         <v>549960</v>
@@ -42504,7 +42498,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="765" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="B25" s="764">
         <v>398151</v>
@@ -42521,7 +42515,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="765" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B26" s="764">
         <v>10892764</v>
@@ -42538,7 +42532,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="765" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="B27" s="764">
         <v>486164</v>
@@ -42555,7 +42549,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="765" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B28" s="764">
         <v>540310</v>
@@ -42579,17 +42573,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="535" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="535" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="758" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -42617,7 +42611,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -42626,7 +42620,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -42642,19 +42636,19 @@
     </row>
     <row r="4" spans="1:8" s="81" customFormat="1" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="197" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B4" s="197" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -42667,7 +42661,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="134" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B6" s="774">
         <v>22659841</v>
@@ -42691,7 +42685,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="292" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="B8" s="527">
         <v>2837110</v>
@@ -42708,7 +42702,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="292" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B9" s="527">
         <v>535944</v>
@@ -42725,7 +42719,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="292" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="B10" s="527">
         <v>119355</v>
@@ -42742,7 +42736,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="356" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="527">
         <v>335765</v>
@@ -42759,7 +42753,7 @@
     </row>
     <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="292" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B12" s="527">
         <v>629997</v>
@@ -42780,7 +42774,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="292" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B13" s="527">
         <v>1569866</v>
@@ -42797,7 +42791,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="292" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B14" s="527">
         <v>974631</v>
@@ -42814,7 +42808,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="292" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="B15" s="527">
         <v>260597</v>
@@ -42831,7 +42825,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="356" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B16" s="527">
         <v>397460</v>
@@ -42848,7 +42842,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="292" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="B17" s="527">
         <v>247225</v>
@@ -42865,7 +42859,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="356" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B18" s="527">
         <v>447073</v>
@@ -42882,7 +42876,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="292" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="B19" s="527">
         <v>355496</v>
@@ -42899,7 +42893,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="292" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="B20" s="527">
         <v>418493</v>
@@ -42916,7 +42910,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="292" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="B21" s="527">
         <v>200097</v>
@@ -42933,7 +42927,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="292" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="B22" s="527">
         <v>400918</v>
@@ -42950,7 +42944,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="292" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="B23" s="527">
         <v>266908</v>
@@ -42967,7 +42961,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="292" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="B24" s="527">
         <v>558913</v>
@@ -42984,7 +42978,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="292" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="B25" s="527">
         <v>457793</v>
@@ -43001,7 +42995,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="292" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B26" s="527">
         <v>10323929</v>
@@ -43018,7 +43012,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="292" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="B27" s="527">
         <v>514698</v>
@@ -43035,7 +43029,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="292" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B28" s="527">
         <v>807573</v>
@@ -43059,17 +43053,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="535" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="535" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="115" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -43098,7 +43092,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -43108,7 +43102,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -43153,7 +43147,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="304" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="B6" s="782">
         <v>609.69546302050969</v>
@@ -43173,7 +43167,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="B7" s="782">
         <v>169.04909881914233</v>
@@ -43201,7 +43195,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="784" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B9" s="782">
         <v>63</v>
@@ -43222,7 +43216,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="783" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="B10" s="782">
         <v>45</v>
@@ -43242,7 +43236,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="783" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="B11" s="782">
         <v>26</v>
@@ -43262,7 +43256,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="B12" s="782">
         <v>23</v>
@@ -43282,7 +43276,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="B13" s="782">
         <v>25</v>
@@ -43310,52 +43304,52 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="454" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="454" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="454" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="781" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="454" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -43383,7 +43377,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="B1" s="801"/>
       <c r="C1" s="801"/>
@@ -43404,7 +43398,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="802" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="801"/>
       <c r="C3" s="801"/>
@@ -43429,7 +43423,7 @@
         <v>202</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="C5" s="197" t="s">
         <v>183</v>
@@ -43461,7 +43455,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="798" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="B7" s="799"/>
       <c r="C7" s="798"/>
@@ -43742,7 +43736,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="798" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="B19" s="794"/>
       <c r="C19" s="797"/>
@@ -44033,7 +44027,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="535" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -44060,7 +44054,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -44071,7 +44065,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -44092,7 +44086,7 @@
     <row r="4" spans="1:14" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="107"/>
       <c r="B4" s="220" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="C4" s="220"/>
       <c r="D4" s="220"/>
@@ -44101,25 +44095,25 @@
     </row>
     <row r="5" spans="1:14" s="81" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="B5" s="427" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="197" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="D5" s="197" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="E5" s="197" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="F5" s="197" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="G5" s="178" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -44162,7 +44156,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="814" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="B8" s="812">
         <v>7</v>
@@ -44188,7 +44182,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="814" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B9" s="812">
         <v>9</v>
@@ -44214,7 +44208,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="814" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="B10" s="812">
         <v>16</v>
@@ -44240,7 +44234,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="814" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B11" s="812">
         <v>54</v>
@@ -44304,7 +44298,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B14" s="812">
         <v>1</v>
@@ -44330,7 +44324,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="B15" s="812">
         <v>6</v>
@@ -44356,7 +44350,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B16" s="812">
         <v>11</v>
@@ -44420,7 +44414,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B19" s="812">
         <v>1</v>
@@ -44446,7 +44440,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="B20" s="812">
         <v>3</v>
@@ -44472,7 +44466,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B21" s="812">
         <v>12</v>
@@ -44536,7 +44530,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="B24" s="812">
         <v>3</v>
@@ -44600,7 +44594,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B27" s="812">
         <v>1</v>
@@ -44664,7 +44658,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="B30" s="812">
         <v>7</v>
@@ -44690,7 +44684,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B31" s="812">
         <v>6</v>
@@ -44716,7 +44710,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="B32" s="812">
         <v>6</v>
@@ -44742,7 +44736,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B33" s="812">
         <v>19</v>
@@ -44806,7 +44800,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B36" s="812">
         <v>1</v>
@@ -44832,7 +44826,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="55" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="B37" s="812">
         <v>1</v>
@@ -44858,7 +44852,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B38" s="812">
         <v>8</v>
@@ -44893,27 +44887,27 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="803" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="803" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="803" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="115" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="115" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -44944,7 +44938,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="393" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="B1" s="306"/>
       <c r="C1" s="306"/>
@@ -44953,7 +44947,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="393" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="B2" s="306"/>
       <c r="C2" s="306"/>
@@ -44970,7 +44964,7 @@
     <row r="4" spans="1:8" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="107"/>
       <c r="B4" s="220" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C4" s="220"/>
       <c r="D4" s="220"/>
@@ -44980,16 +44974,16 @@
         <v>123</v>
       </c>
       <c r="B5" s="197" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="C5" s="197" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -45145,7 +45139,7 @@
         <v>85</v>
       </c>
       <c r="D15" s="823" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="E15" s="819">
         <v>16884</v>
@@ -45506,27 +45500,27 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="553" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="553" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="673" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="553" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="454" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -45555,7 +45549,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B1" s="307"/>
       <c r="C1" s="307"/>
@@ -45573,7 +45567,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="831" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B3" s="831"/>
       <c r="C3" s="831"/>
@@ -45583,7 +45577,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="830" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B4" s="830"/>
       <c r="C4" s="830"/>
@@ -45603,11 +45597,11 @@
       <c r="A6" s="107"/>
       <c r="B6" s="107"/>
       <c r="C6" s="220" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="D6" s="220"/>
       <c r="E6" s="220" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="F6" s="198"/>
     </row>
@@ -45616,19 +45610,19 @@
         <v>123</v>
       </c>
       <c r="B7" s="944" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="C7" s="944" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="603" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="E7" s="944" t="s">
         <v>124</v>
       </c>
       <c r="F7" s="943" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -46088,32 +46082,32 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -46143,7 +46137,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -46152,7 +46146,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -46169,30 +46163,30 @@
     <row r="4" spans="1:7" s="10" customFormat="1" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="107"/>
       <c r="B4" s="8" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="E4" s="106"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="944" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="B5" s="944" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C5" s="603" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="D5" s="944" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E5" s="836" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="F5" s="835"/>
       <c r="G5" s="835"/>
@@ -46275,7 +46269,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="528" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -46292,7 +46286,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="528" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -46338,27 +46332,27 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="117" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="117" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="535" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="F21" s="513"/>
     </row>
@@ -46388,7 +46382,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B1" s="473"/>
       <c r="C1" s="473"/>
@@ -46400,7 +46394,7 @@
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="307" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B3" s="473"/>
       <c r="C3" s="473"/>
@@ -46415,10 +46409,10 @@
         <v>123</v>
       </c>
       <c r="B5" s="843" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="C5" s="842" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46537,24 +46531,24 @@
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="625" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B18" s="306"/>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="B19" s="306"/>
     </row>
     <row r="20" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="535" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="454" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -46580,7 +46574,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -46589,7 +46583,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -46608,7 +46602,7 @@
       <c r="B4" s="942"/>
       <c r="C4" s="849"/>
       <c r="D4" s="346" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="E4" s="141"/>
     </row>
@@ -46617,16 +46611,16 @@
         <v>123</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="D5" s="197" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="E5" s="178" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47121,17 +47115,17 @@
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="845" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="115" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -48156,7 +48150,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B1" s="295"/>
       <c r="C1" s="295"/>
@@ -48165,7 +48159,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B2" s="295"/>
       <c r="C2" s="295"/>
@@ -48184,7 +48178,7 @@
       <c r="B4" s="107"/>
       <c r="C4" s="107"/>
       <c r="D4" s="220" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="E4" s="198"/>
     </row>
@@ -48193,16 +48187,16 @@
         <v>123</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="D5" s="197" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="E5" s="178" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -48697,22 +48691,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="535" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="416" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="845" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="416" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -48744,7 +48738,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="866" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="306"/>
       <c r="C1" s="306"/>
@@ -48752,7 +48746,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="866" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="B2" s="306"/>
       <c r="C2" s="306"/>
@@ -48766,7 +48760,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="830" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="B4" s="306"/>
       <c r="C4" s="306"/>
@@ -48774,7 +48768,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="830" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="B5" s="306"/>
       <c r="C5" s="306"/>
@@ -48790,7 +48784,7 @@
       <c r="A7" s="864"/>
       <c r="B7" s="107"/>
       <c r="C7" s="220" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="D7" s="198"/>
     </row>
@@ -48799,13 +48793,13 @@
         <v>123</v>
       </c>
       <c r="B8" s="944" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="C8" s="944" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="D8" s="943" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -48821,10 +48815,10 @@
         <v>65</v>
       </c>
       <c r="C10" s="544" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="D10" s="543" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -48835,10 +48829,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="544" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D11" s="543" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -48849,10 +48843,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="544" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="D12" s="543" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -48863,10 +48857,10 @@
         <v>42</v>
       </c>
       <c r="C13" s="544" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="D13" s="543" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -48877,10 +48871,10 @@
         <v>42</v>
       </c>
       <c r="C14" s="544" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="D14" s="543" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -48891,10 +48885,10 @@
         <v>35</v>
       </c>
       <c r="C15" s="544" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="D15" s="543" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -48905,10 +48899,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="544" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="D16" s="543" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -48919,10 +48913,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="544" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="D17" s="543" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -48933,10 +48927,10 @@
         <v>34</v>
       </c>
       <c r="C18" s="544" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="D18" s="543" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -48947,10 +48941,10 @@
         <v>57</v>
       </c>
       <c r="C19" s="544" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="D19" s="543" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -48961,10 +48955,10 @@
         <v>76</v>
       </c>
       <c r="C20" s="544" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="D20" s="543" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -48975,10 +48969,10 @@
         <v>73</v>
       </c>
       <c r="C21" s="544" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="D21" s="543" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -48989,10 +48983,10 @@
         <v>86</v>
       </c>
       <c r="C22" s="544" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="D22" s="543" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -49003,10 +48997,10 @@
         <v>64</v>
       </c>
       <c r="C23" s="544" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="D23" s="543" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -49017,10 +49011,10 @@
         <v>58</v>
       </c>
       <c r="C24" s="544" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="D24" s="543" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -49031,10 +49025,10 @@
         <v>60</v>
       </c>
       <c r="C25" s="544" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="D25" s="543" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -49045,10 +49039,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="544" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="D26" s="543" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -49059,10 +49053,10 @@
         <v>90</v>
       </c>
       <c r="C27" s="544" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="D27" s="543" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -49073,12 +49067,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="522" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="855" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -49118,7 +49112,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -49126,7 +49120,7 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -49141,25 +49135,25 @@
     <row r="4" spans="1:4" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="879"/>
       <c r="B4" s="981" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C4" s="982"/>
       <c r="D4" s="142" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="944" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B5" s="878" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="C5" s="878" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="D5" s="877" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -49170,7 +49164,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="872" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B7" s="484">
         <v>35513</v>
@@ -49184,7 +49178,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="872" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B8" s="871">
         <v>29005</v>
@@ -49198,7 +49192,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="872" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B9" s="871">
         <v>39754</v>
@@ -49212,7 +49206,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="872" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B10" s="871">
         <v>26254</v>
@@ -49226,7 +49220,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="872" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B11" s="871">
         <v>43435</v>
@@ -49240,7 +49234,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="873" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B12" s="542">
         <v>30467</v>
@@ -49254,7 +49248,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="873" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B13" s="542">
         <v>45718</v>
@@ -49268,7 +49262,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="873" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="B14" s="542">
         <v>32650</v>
@@ -49282,7 +49276,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="873" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B15" s="542">
         <v>43673</v>
@@ -49296,7 +49290,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="873" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="B16" s="542">
         <v>32630</v>
@@ -49310,7 +49304,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="873" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="B17" s="542">
         <v>30024</v>
@@ -49324,7 +49318,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="873" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B18" s="542">
         <v>29106</v>
@@ -49338,7 +49332,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="873" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B19" s="542">
         <v>25365</v>
@@ -49352,7 +49346,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="873" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B20" s="542">
         <v>22793</v>
@@ -49366,7 +49360,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="872" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B21" s="542">
         <v>23175</v>
@@ -49380,7 +49374,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="872" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B22" s="871">
         <v>20546</v>
@@ -49394,7 +49388,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="872" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="B23" s="871">
         <v>30911</v>
@@ -49408,7 +49402,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="872" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="B24" s="871">
         <v>21582</v>
@@ -49428,57 +49422,57 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="454" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="454" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="867" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="867" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="867" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="116" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="454" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="454" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="35" spans="1:1" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="454" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="454" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="37" spans="1:1" s="454" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="454" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="38" spans="1:1" s="454" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -49512,7 +49506,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="645" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="B1" s="392"/>
       <c r="C1" s="392"/>
@@ -49523,7 +49517,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="645" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="B2" s="392"/>
       <c r="C2" s="392"/>
@@ -49543,7 +49537,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="672" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="B4" s="605"/>
       <c r="C4" s="605"/>
@@ -49564,37 +49558,37 @@
     <row r="6" spans="1:9" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="107"/>
       <c r="B6" s="220" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="C6" s="220"/>
       <c r="D6" s="220"/>
       <c r="E6" s="220"/>
       <c r="F6" s="220" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G6" s="198"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="B7" s="427" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="197" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="D7" s="197" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="E7" s="197" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="F7" s="197" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="G7" s="106" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -49608,7 +49602,7 @@
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="889" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B9" s="888"/>
       <c r="C9" s="887"/>
@@ -49620,7 +49614,7 @@
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B10" s="888">
         <v>53</v>
@@ -49644,7 +49638,7 @@
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="299" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="B11" s="888">
         <v>34</v>
@@ -49668,7 +49662,7 @@
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="299" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="B12" s="888">
         <v>32</v>
@@ -49692,7 +49686,7 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B13" s="888">
         <v>13</v>
@@ -49716,7 +49710,7 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="299" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="B14" s="888">
         <v>28</v>
@@ -49740,7 +49734,7 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="299" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="B15" s="888">
         <v>31</v>
@@ -49774,7 +49768,7 @@
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="889" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B17" s="888"/>
       <c r="C17" s="887"/>
@@ -49786,7 +49780,7 @@
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B18" s="888">
         <v>51</v>
@@ -49810,7 +49804,7 @@
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="299" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="B19" s="888">
         <v>30</v>
@@ -49834,7 +49828,7 @@
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="299" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="B20" s="888">
         <v>30</v>
@@ -49858,7 +49852,7 @@
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B21" s="888">
         <v>14</v>
@@ -49882,7 +49876,7 @@
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="299" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="B22" s="888">
         <v>33</v>
@@ -49906,7 +49900,7 @@
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="299" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="B23" s="888">
         <v>29</v>
@@ -49940,7 +49934,7 @@
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="889" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B25" s="888"/>
       <c r="C25" s="887"/>
@@ -49952,7 +49946,7 @@
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B26" s="888">
         <v>51</v>
@@ -49977,7 +49971,7 @@
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="299" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="B27" s="888">
         <v>30</v>
@@ -50002,7 +49996,7 @@
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="299" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="B28" s="888">
         <v>30</v>
@@ -50027,7 +50021,7 @@
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B29" s="888">
         <v>12</v>
@@ -50052,7 +50046,7 @@
     </row>
     <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="299" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="B30" s="888">
         <v>27</v>
@@ -50077,7 +50071,7 @@
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="299" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="B31" s="888">
         <v>28</v>
@@ -50113,7 +50107,7 @@
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="889" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="B33" s="888"/>
       <c r="C33" s="887"/>
@@ -50125,7 +50119,7 @@
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B34" s="888">
         <v>50</v>
@@ -50150,7 +50144,7 @@
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="299" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="B35" s="888">
         <v>31</v>
@@ -50175,7 +50169,7 @@
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="299" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="B36" s="888">
         <v>32</v>
@@ -50200,7 +50194,7 @@
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B37" s="888">
         <v>14</v>
@@ -50225,7 +50219,7 @@
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="299" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="B38" s="888">
         <v>31</v>
@@ -50250,7 +50244,7 @@
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="299" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="B39" s="888">
         <v>27</v>
@@ -50293,7 +50287,7 @@
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="553" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="B42" s="604"/>
       <c r="C42" s="604"/>
@@ -50304,7 +50298,7 @@
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="553" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="B43" s="604"/>
       <c r="C43" s="604"/>
@@ -50315,7 +50309,7 @@
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="673" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="B44" s="604"/>
       <c r="C44" s="604"/>
@@ -50396,7 +50390,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="393" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="B1" s="908"/>
       <c r="C1" s="908"/>
@@ -50405,7 +50399,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="393" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="B2" s="908"/>
       <c r="C2" s="908"/>
@@ -50421,7 +50415,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="909" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="B4" s="908"/>
       <c r="C4" s="908"/>
@@ -50437,19 +50431,19 @@
     </row>
     <row r="6" spans="1:5" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="B6" s="197" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="C6" s="197" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="D6" s="197" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="E6" s="178" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -50461,7 +50455,7 @@
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="901" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="B8" s="898"/>
       <c r="C8" s="899"/>
@@ -50470,10 +50464,10 @@
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C9" s="900" t="s">
         <v>85</v>
@@ -50487,10 +50481,10 @@
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="299" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B10" s="898" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="C10" s="899">
         <v>548</v>
@@ -50504,10 +50498,10 @@
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B11" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C11" s="899">
         <v>185</v>
@@ -50528,7 +50522,7 @@
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="901" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B13" s="898"/>
       <c r="C13" s="899"/>
@@ -50537,10 +50531,10 @@
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B14" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C14" s="900" t="s">
         <v>85</v>
@@ -50554,10 +50548,10 @@
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="299" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B15" s="898" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="C15" s="899">
         <v>526</v>
@@ -50571,10 +50565,10 @@
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B16" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C16" s="899">
         <v>192</v>
@@ -50595,7 +50589,7 @@
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="901" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B18" s="898"/>
       <c r="C18" s="899"/>
@@ -50604,10 +50598,10 @@
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B19" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C19" s="900" t="s">
         <v>85</v>
@@ -50621,10 +50615,10 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="299" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B20" s="898" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="C20" s="899">
         <v>515</v>
@@ -50638,10 +50632,10 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B21" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C21" s="899">
         <v>193</v>
@@ -50662,7 +50656,7 @@
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="901" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B23" s="898"/>
       <c r="C23" s="899"/>
@@ -50671,10 +50665,10 @@
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B24" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C24" s="900" t="s">
         <v>85</v>
@@ -50688,10 +50682,10 @@
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="299" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B25" s="898" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="C25" s="899">
         <v>582</v>
@@ -50705,10 +50699,10 @@
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B26" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C26" s="899">
         <v>191</v>
@@ -50729,7 +50723,7 @@
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="901" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B28" s="898"/>
       <c r="C28" s="899"/>
@@ -50738,10 +50732,10 @@
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B29" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C29" s="900" t="s">
         <v>85</v>
@@ -50755,10 +50749,10 @@
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="299" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B30" s="898" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="C30" s="899">
         <v>284</v>
@@ -50772,10 +50766,10 @@
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B31" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C31" s="899">
         <v>182</v>
@@ -50796,7 +50790,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="901" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B33" s="898"/>
       <c r="C33" s="899"/>
@@ -50805,10 +50799,10 @@
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B34" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C34" s="900" t="s">
         <v>85</v>
@@ -50822,10 +50816,10 @@
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="299" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B35" s="898" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="C35" s="899">
         <v>294</v>
@@ -50839,10 +50833,10 @@
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B36" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C36" s="899">
         <v>187</v>
@@ -50863,7 +50857,7 @@
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="901" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="B38" s="898"/>
       <c r="C38" s="899"/>
@@ -50872,10 +50866,10 @@
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="299" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B39" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C39" s="900" t="s">
         <v>85</v>
@@ -50889,10 +50883,10 @@
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="299" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B40" s="898" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="C40" s="899">
         <v>292</v>
@@ -50906,10 +50900,10 @@
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="299" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B41" s="898" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C41" s="897">
         <v>123</v>
@@ -50937,7 +50931,7 @@
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="892" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="B44" s="891"/>
       <c r="C44" s="891"/>
@@ -50946,7 +50940,7 @@
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="892" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="B45" s="891"/>
       <c r="C45" s="891"/>
@@ -50955,7 +50949,7 @@
     </row>
     <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="673" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="B46" s="891"/>
       <c r="C46" s="891"/>
@@ -50964,7 +50958,7 @@
     </row>
     <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="673" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="B47" s="891"/>
       <c r="C47" s="891"/>
@@ -50973,7 +50967,7 @@
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="673" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="B48" s="891"/>
       <c r="C48" s="891"/>
@@ -50982,7 +50976,7 @@
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="673" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="B49" s="891"/>
       <c r="C49" s="891"/>
@@ -50991,7 +50985,7 @@
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="673" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B50" s="891"/>
       <c r="C50" s="891"/>
@@ -51029,7 +51023,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="393" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="B1" s="306"/>
       <c r="C1" s="306"/>
@@ -51038,7 +51032,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="393" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="B2" s="306"/>
       <c r="C2" s="306"/>
@@ -51057,16 +51051,16 @@
         <v>202</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -51077,7 +51071,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="541" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="B6" s="304"/>
       <c r="C6" s="304"/>
@@ -51408,7 +51402,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="463" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="B26" s="911" t="s">
         <v>83</v>
@@ -51483,7 +51477,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="913" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="B31" s="821"/>
       <c r="C31" s="820"/>
@@ -51691,12 +51685,12 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="553" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="553" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
     </row>
   </sheetData>
@@ -51724,7 +51718,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="B1" s="306"/>
       <c r="C1" s="306"/>
@@ -51746,7 +51740,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="307" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="B3" s="306"/>
       <c r="C3" s="306"/>
@@ -51771,13 +51765,13 @@
         <v>123</v>
       </c>
       <c r="B5" s="427" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="C5" s="197" t="s">
         <v>183</v>
       </c>
       <c r="D5" s="197" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="E5" s="197" t="s">
         <v>188</v>
@@ -52114,7 +52108,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="876" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="H18" s="921">
         <v>1942</v>
@@ -52140,7 +52134,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="876" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="H19" s="921">
         <v>2648</v>
@@ -52166,7 +52160,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="876" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="H20" s="921">
         <v>2115</v>
@@ -52192,7 +52186,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="876" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="H21" s="921">
         <v>3900</v>
@@ -52218,7 +52212,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="876" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="H22" s="921">
         <v>2547</v>
@@ -52244,7 +52238,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="876" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="H23" s="921">
         <v>4513</v>
@@ -52270,7 +52264,7 @@
         <v>61</v>
       </c>
       <c r="G24" s="876" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="H24" s="921">
         <v>4113</v>
@@ -52296,7 +52290,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="876" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="H25" s="921">
         <v>4454</v>
@@ -52313,7 +52307,7 @@
         <v>6205</v>
       </c>
       <c r="D26" s="876" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="E26" s="876" t="s">
         <v>85</v>
@@ -52322,7 +52316,7 @@
         <v>85</v>
       </c>
       <c r="G26" s="876" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="H26" s="921">
         <v>2664</v>
@@ -52339,7 +52333,7 @@
         <v>2167</v>
       </c>
       <c r="D27" s="876" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="E27" s="919">
         <v>54</v>
@@ -52348,10 +52342,10 @@
         <v>26</v>
       </c>
       <c r="G27" s="876" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="H27" s="746" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -52365,7 +52359,7 @@
         <v>6504</v>
       </c>
       <c r="D28" s="876" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="E28" s="876" t="s">
         <v>85</v>
@@ -52374,7 +52368,7 @@
         <v>85</v>
       </c>
       <c r="G28" s="876" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="H28" s="921">
         <v>1595</v>
@@ -52391,7 +52385,7 @@
         <v>4609</v>
       </c>
       <c r="D29" s="876" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="E29" s="876" t="s">
         <v>85</v>
@@ -52400,7 +52394,7 @@
         <v>85</v>
       </c>
       <c r="G29" s="876" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="H29" s="921">
         <v>3345</v>
@@ -52417,7 +52411,7 @@
         <v>8203</v>
       </c>
       <c r="D30" s="876" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="E30" s="876" t="s">
         <v>85</v>
@@ -52426,7 +52420,7 @@
         <v>85</v>
       </c>
       <c r="G30" s="876" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="H30" s="921">
         <v>1370</v>
@@ -52443,7 +52437,7 @@
         <v>7804</v>
       </c>
       <c r="D31" s="876" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="E31" s="876" t="s">
         <v>85</v>
@@ -52452,7 +52446,7 @@
         <v>85</v>
       </c>
       <c r="G31" s="876" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="H31" s="921">
         <v>2893</v>
@@ -52469,7 +52463,7 @@
         <v>5738</v>
       </c>
       <c r="D32" s="544" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="E32" s="876" t="s">
         <v>85</v>
@@ -52478,7 +52472,7 @@
         <v>85</v>
       </c>
       <c r="G32" s="876" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="H32" s="746" t="s">
         <v>85</v>
@@ -52498,62 +52492,62 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="454" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="454" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="454" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="454" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="454" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="454" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="454" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="454" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="454" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="475" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="867" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="454" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
     </row>
   </sheetData>
